--- a/va_facility_data_2025-02-20/Northern Colorado VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northern%20Colorado%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northern Colorado VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northern%20Colorado%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd1c213b05a134f94962c6ec653859452"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra210299a680f48b791db6089fed930ed"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rda11d8dd92854061a6fecba29fe37ceb"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb39a8406d6c24f5ca23e3cef41f704ad"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2526268a2c8d456b8f2d3113ea964944"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7870927f553947088ad877a36bb5a15d"/>
   </x:sheets>
 </x:workbook>
 </file>
